--- a/kvision/ksample/mytable/BaiduOCRConverter_Excel/008_fcc77.xlsx
+++ b/kvision/ksample/mytable/BaiduOCRConverter_Excel/008_fcc77.xlsx
@@ -1,133 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
-  <si>
-    <t>省份投资增速</t>
-  </si>
-  <si>
-    <t>投资增速目标</t>
-  </si>
-  <si>
-    <t>政府工作报告</t>
-  </si>
-  <si>
-    <t>安徽9.40%</t>
-  </si>
-  <si>
-    <t>10%以上</t>
-  </si>
-  <si>
-    <t>1.以重大项目牵引扩大有效投资，适度超前开展基础设施投资，加大制造业、高新技术产业投资力度，全年新开工亿元以上重点项目2600个以上、坡工1200个以上。2。加快新型城镇化建设，加强优质产业空间供给，补齐产业园区城市功能短板，推动产业集群化、集群园区化、园区社区化、社区城镇化。实施县城补短板强弱项工程，支持有条件的县城和城镇按照中小城市标准建设，扩大人口较大县城设置街道改革试点。</t>
-  </si>
-  <si>
-    <t>辽宁2.60%</t>
-  </si>
-  <si>
-    <t>10%左右</t>
-  </si>
-  <si>
-    <t>1.加快建设红沿河核电、徐大堡核电、沈白高铁，开工建设京哈高速绥中盘锦段改扩建工程、本恒宽高速、凌绥高速及兵器集团精细化工及原料工程项目，2。大力发展县域经济，建设产业园区，做强做优“一县一业”，努力培养一批农业强县、制造强县、商贸强县、文旅强县。</t>
-  </si>
-  <si>
-    <t>甘肃11.10%</t>
-  </si>
-  <si>
-    <t>1.积极扩大有效投资，新增高铁里程184公里，力争新增一级高速公路700公里，加快机场建设工作，优化水网体系布局。2。推动以人为核心的新型城镇化，落实共建兰西城市料“1+3+10”行动计划，统筹大中小城市与小城镇融合发展，加快榆中、敦煌国家级新型城镇化示范县城建设，抓好马山“兴边富民行动中心城镇”试点。</t>
-  </si>
-  <si>
-    <t>湖南</t>
-  </si>
-  <si>
-    <t>7.50%</t>
-  </si>
-  <si>
-    <t>1.全方位推进“十四大交通工程”、“六大水利工程”建设，力争基础设施投资增长10%：实现5G网络和千兆光网度益全部乡镇。2。推进以人为核心的新型城镇化，大力发展县城经济。</t>
-  </si>
-  <si>
-    <t>重庆6.10%</t>
-  </si>
-  <si>
-    <t>6%</t>
-  </si>
-  <si>
-    <t>1.积极扩大有效投资，抓好项目储备，加强政策对接。适度超前开展基础设施投资，抓好基础设施投资放量，抓好工业投资提质增效，用好产业链招商等方式，引进一批牵引性强、可持续发展的项目。2。持续推进城市提升，提高城市功能品质，深入推进以人为核心的新型城镇化，加强城市规划、建设、管理，努力建设国际化、绿色化、智能化、人文化现代大都市。</t>
-  </si>
-  <si>
-    <t>江西10.80%</t>
-  </si>
-  <si>
-    <t>8%以上</t>
-  </si>
-  <si>
-    <t>1.重点推进3453个省大中型项目，年度投资1.1万亿元以上。2。实施城市功能与品质提升行动，完成县级城市建成区黑臭水体排查并启动整治，32%建成区达到海绵城市建设要求，力争30%城市（县城）达到省生态园林城市标准。</t>
-  </si>
-  <si>
-    <t>广西7.60%</t>
-  </si>
-  <si>
-    <t>10%</t>
-  </si>
-  <si>
-    <t>1.自治区层面统筹推进重大项目2000项以上：开工一批高速公路项目、里程2000公里以上，全面实现县县通高速，力争引进10家以上“三类500强”企业，完成投资8200亿元以上：新建5G基站1.5万个：工业互联网新基建项目30个。2。加快建设桂林世界级旅游城市和广西世界级旅游城市目的地，开展“百镇千村”生态特色文化旅游创建</t>
-  </si>
-  <si>
-    <t>6.30%广东</t>
-  </si>
-  <si>
-    <t>89%</t>
-  </si>
-  <si>
-    <t>1.适度超前开展基础设施投资，加快交通强省建设。推进广湛等高铁建设，做好漳汕高铁新通道等项目前期工作：抓好深中等跨江跨海通道和沈海等高速公路改扩建项目，推进普通国省道和普通公路危旧桥、渡改桥升级改造，加快世界级机场群港口群建设，加快新型消费基础设施和载体建设。2。积极作为深入推进寻港澳大湾区建设，全力建设好深圳先行示范区，推动广州加快实现老城市新活力和“四个出新出彩”，高水平推进横琴粤澳深度合作区建设，全面深化前海深港现代服务业合作区改革开放。</t>
-  </si>
-  <si>
-    <t>新疆15%</t>
-  </si>
-  <si>
-    <t>1.加快旅游基础设施建设，适度超前开展基础设施投资，加快推进综合立体交通建设，加快推进水利建设，加快推进能源建设，加快推进通信建设；有序推进城市更新，加强城市公共交通、市政设施、地下管网建设。2。加快新型城镇化建设，培育一批城市群和区域中心城市，促进城乡融合发展。</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -135,21 +47,105 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="00FF0000"/>
+      </left>
+      <right style="thick">
+        <color rgb="00FF0000"/>
+      </right>
+      <top style="thick">
+        <color rgb="00FF0000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="00FF0000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -437,119 +433,183 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>27</v>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>省份投资增速</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>投资增速目标</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>政府工作报告</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>安徽9.40%</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>10%以上</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>1.以重大项目牵引扩大有效投资，适度超前开展基础设施投资，加大制造业、高新技术产业投资力度，全年新开工亿元以上重点项目2600个以上、坡工1200个以上。2。加快新型城镇化建设，加强优质产业空间供给，补齐产业园区城市功能短板，推动产业集群化、集群园区化、园区社区化、社区城镇化。实施县城补短板强弱项工程，支持有条件的县城和城镇按照中小城市标准建设，扩大人口较大县城设置街道改革试点。</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>辽宁2.60%</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>10%左右</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>1.加快建设红沿河核电、徐大堡核电、沈白高铁，开工建设京哈高速绥中盘锦段改扩建工程、本恒宽高速、凌绥高速及兵器集团精细化工及原料工程项目，2。大力发展县域经济，建设产业园区，做强做优“一县一业”，努力培养一批农业强县、制造强县、商贸强县、文旅强县。</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>甘肃11.10%</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n"/>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>1.积极扩大有效投资，新增高铁里程184公里，力争新增一级高速公路700公里，加快机场建设工作，优化水网体系布局。2。推动以人为核心的新型城镇化，落实共建兰西城市料“1+3+10”行动计划，统筹大中小城市与小城镇融合发展，加快榆中、敦煌国家级新型城镇化示范县城建设，抓好马山“兴边富民行动中心城镇”试点。</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>湖南</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>7.50%</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>1.全方位推进“十四大交通工程”、“六大水利工程”建设，力争基础设施投资增长10%：实现5G网络和千兆光网度益全部乡镇。2。推进以人为核心的新型城镇化，大力发展县城经济。</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>重庆6.10%</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>6%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>1.积极扩大有效投资，抓好项目储备，加强政策对接。适度超前开展基础设施投资，抓好基础设施投资放量，抓好工业投资提质增效，用好产业链招商等方式，引进一批牵引性强、可持续发展的项目。2。持续推进城市提升，提高城市功能品质，深入推进以人为核心的新型城镇化，加强城市规划、建设、管理，努力建设国际化、绿色化、智能化、人文化现代大都市。</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>江西10.80%</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>8%以上</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>1.重点推进3453个省大中型项目，年度投资1.1万亿元以上。2。实施城市功能与品质提升行动，完成县级城市建成区黑臭水体排查并启动整治，32%建成区达到海绵城市建设要求，力争30%城市（县城）达到省生态园林城市标准。</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>广西7.60%</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1.自治区层面统筹推进重大项目2000项以上：开工一批高速公路项目、里程2000公里以上，全面实现县县通高速，力争引进10家以上“三类500强”企业，完成投资8200亿元以上：新建5G基站1.5万个：工业互联网新基建项目30个。2。加快建设桂林世界级旅游城市和广西世界级旅游城市目的地，开展“百镇千村”生态特色文化旅游创建</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>6.30%广东</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>89%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1.适度超前开展基础设施投资，加快交通强省建设。推进广湛等高铁建设，做好漳汕高铁新通道等项目前期工作：抓好深中等跨江跨海通道和沈海等高速公路改扩建项目，推进普通国省道和普通公路危旧桥、渡改桥升级改造，加快世界级机场群港口群建设，加快新型消费基础设施和载体建设。2。积极作为深入推进寻港澳大湾区建设，全力建设好深圳先行示范区，推动广州加快实现老城市新活力和“四个出新出彩”，高水平推进横琴粤澳深度合作区建设，全面深化前海深港现代服务业合作区改革开放。</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>新疆15%</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>10%左右</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>1.加快旅游基础设施建设，适度超前开展基础设施投资，加快推进综合立体交通建设，加快推进水利建设，加快推进能源建设，加快推进通信建设；有序推进城市更新，加强城市公共交通、市政设施、地下管网建设。2。加快新型城镇化建设，培育一批城市群和区域中心城市，促进城乡融合发展。</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/kvision/ksample/mytable/BaiduOCRConverter_Excel/008_fcc77.xlsx
+++ b/kvision/ksample/mytable/BaiduOCRConverter_Excel/008_fcc77.xlsx
@@ -39,7 +39,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -61,16 +61,33 @@
         <color rgb="00FF0000"/>
       </bottom>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -447,166 +464,166 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>省份投资增速</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>投资增速目标</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>政府工作报告</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="3" t="inlineStr">
         <is>
           <t>安徽9.40%</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>10%以上</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>1.以重大项目牵引扩大有效投资，适度超前开展基础设施投资，加大制造业、高新技术产业投资力度，全年新开工亿元以上重点项目2600个以上、坡工1200个以上。2。加快新型城镇化建设，加强优质产业空间供给，补齐产业园区城市功能短板，推动产业集群化、集群园区化、园区社区化、社区城镇化。实施县城补短板强弱项工程，支持有条件的县城和城镇按照中小城市标准建设，扩大人口较大县城设置街道改革试点。</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>辽宁2.60%</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" s="3" t="inlineStr">
         <is>
           <t>10%左右</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" s="3" t="inlineStr">
         <is>
           <t>1.加快建设红沿河核电、徐大堡核电、沈白高铁，开工建设京哈高速绥中盘锦段改扩建工程、本恒宽高速、凌绥高速及兵器集团精细化工及原料工程项目，2。大力发展县域经济，建设产业园区，做强做优“一县一业”，努力培养一批农业强县、制造强县、商贸强县、文旅强县。</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>甘肃11.10%</t>
         </is>
       </c>
-      <c r="B4" s="2" t="n"/>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="B4" s="3" t="n"/>
+      <c r="C4" s="3" t="inlineStr">
         <is>
           <t>1.积极扩大有效投资，新增高铁里程184公里，力争新增一级高速公路700公里，加快机场建设工作，优化水网体系布局。2。推动以人为核心的新型城镇化，落实共建兰西城市料“1+3+10”行动计划，统筹大中小城市与小城镇融合发展，加快榆中、敦煌国家级新型城镇化示范县城建设，抓好马山“兴边富民行动中心城镇”试点。</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="3" t="inlineStr">
         <is>
           <t>湖南</t>
         </is>
       </c>
-      <c r="B5" s="2" t="inlineStr">
+      <c r="B5" s="3" t="inlineStr">
         <is>
           <t>7.50%</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="C5" s="3" t="inlineStr">
         <is>
           <t>1.全方位推进“十四大交通工程”、“六大水利工程”建设，力争基础设施投资增长10%：实现5G网络和千兆光网度益全部乡镇。2。推进以人为核心的新型城镇化，大力发展县城经济。</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t>重庆6.10%</t>
         </is>
       </c>
-      <c r="B6" s="2" t="inlineStr">
+      <c r="B6" s="3" t="inlineStr">
         <is>
           <t>6%</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
+      <c r="C6" s="3" t="inlineStr">
         <is>
           <t>1.积极扩大有效投资，抓好项目储备，加强政策对接。适度超前开展基础设施投资，抓好基础设施投资放量，抓好工业投资提质增效，用好产业链招商等方式，引进一批牵引性强、可持续发展的项目。2。持续推进城市提升，提高城市功能品质，深入推进以人为核心的新型城镇化，加强城市规划、建设、管理，努力建设国际化、绿色化、智能化、人文化现代大都市。</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>江西10.80%</t>
         </is>
       </c>
-      <c r="B7" s="2" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>8%以上</t>
         </is>
       </c>
-      <c r="C7" s="2" t="inlineStr">
+      <c r="C7" s="3" t="inlineStr">
         <is>
           <t>1.重点推进3453个省大中型项目，年度投资1.1万亿元以上。2。实施城市功能与品质提升行动，完成县级城市建成区黑臭水体排查并启动整治，32%建成区达到海绵城市建设要求，力争30%城市（县城）达到省生态园林城市标准。</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="A8" s="3" t="inlineStr">
         <is>
           <t>广西7.60%</t>
         </is>
       </c>
-      <c r="B8" s="2" t="inlineStr">
+      <c r="B8" s="3" t="inlineStr">
         <is>
           <t>10%</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
+      <c r="C8" s="3" t="inlineStr">
         <is>
           <t>1.自治区层面统筹推进重大项目2000项以上：开工一批高速公路项目、里程2000公里以上，全面实现县县通高速，力争引进10家以上“三类500强”企业，完成投资8200亿元以上：新建5G基站1.5万个：工业互联网新基建项目30个。2。加快建设桂林世界级旅游城市和广西世界级旅游城市目的地，开展“百镇千村”生态特色文化旅游创建</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
+      <c r="A9" s="3" t="inlineStr">
         <is>
           <t>6.30%广东</t>
         </is>
       </c>
-      <c r="B9" s="2" t="inlineStr">
+      <c r="B9" s="3" t="inlineStr">
         <is>
           <t>89%</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
+      <c r="C9" s="3" t="inlineStr">
         <is>
           <t>1.适度超前开展基础设施投资，加快交通强省建设。推进广湛等高铁建设，做好漳汕高铁新通道等项目前期工作：抓好深中等跨江跨海通道和沈海等高速公路改扩建项目，推进普通国省道和普通公路危旧桥、渡改桥升级改造，加快世界级机场群港口群建设，加快新型消费基础设施和载体建设。2。积极作为深入推进寻港澳大湾区建设，全力建设好深圳先行示范区，推动广州加快实现老城市新活力和“四个出新出彩”，高水平推进横琴粤澳深度合作区建设，全面深化前海深港现代服务业合作区改革开放。</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>新疆15%</t>
         </is>
       </c>
-      <c r="B10" s="2" t="inlineStr">
+      <c r="B10" s="3" t="inlineStr">
         <is>
           <t>10%左右</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
+      <c r="C10" s="3" t="inlineStr">
         <is>
           <t>1.加快旅游基础设施建设，适度超前开展基础设施投资，加快推进综合立体交通建设，加快推进水利建设，加快推进能源建设，加快推进通信建设；有序推进城市更新，加强城市公共交通、市政设施、地下管网建设。2。加快新型城镇化建设，培育一批城市群和区域中心城市，促进城乡融合发展。</t>
         </is>

--- a/kvision/ksample/mytable/BaiduOCRConverter_Excel/008_fcc77.xlsx
+++ b/kvision/ksample/mytable/BaiduOCRConverter_Excel/008_fcc77.xlsx
@@ -39,7 +39,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -75,11 +75,25 @@
         <color rgb="00000000"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="00101010"/>
+      </left>
+      <right style="thin">
+        <color rgb="00101010"/>
+      </right>
+      <top style="thin">
+        <color rgb="00101010"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00101010"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
@@ -88,6 +102,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -464,166 +481,166 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>省份投资增速</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>投资增速目标</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>政府工作报告</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="inlineStr">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>安徽9.40%</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>10%以上</t>
         </is>
       </c>
-      <c r="C2" s="3" t="inlineStr">
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>1.以重大项目牵引扩大有效投资，适度超前开展基础设施投资，加大制造业、高新技术产业投资力度，全年新开工亿元以上重点项目2600个以上、坡工1200个以上。2。加快新型城镇化建设，加强优质产业空间供给，补齐产业园区城市功能短板，推动产业集群化、集群园区化、园区社区化、社区城镇化。实施县城补短板强弱项工程，支持有条件的县城和城镇按照中小城市标准建设，扩大人口较大县城设置街道改革试点。</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="inlineStr">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>辽宁2.60%</t>
         </is>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr">
         <is>
           <t>10%左右</t>
         </is>
       </c>
-      <c r="C3" s="3" t="inlineStr">
+      <c r="C3" s="4" t="inlineStr">
         <is>
           <t>1.加快建设红沿河核电、徐大堡核电、沈白高铁，开工建设京哈高速绥中盘锦段改扩建工程、本恒宽高速、凌绥高速及兵器集团精细化工及原料工程项目，2。大力发展县域经济，建设产业园区，做强做优“一县一业”，努力培养一批农业强县、制造强县、商贸强县、文旅强县。</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="inlineStr">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>甘肃11.10%</t>
         </is>
       </c>
-      <c r="B4" s="3" t="n"/>
-      <c r="C4" s="3" t="inlineStr">
+      <c r="B4" s="4" t="n"/>
+      <c r="C4" s="4" t="inlineStr">
         <is>
           <t>1.积极扩大有效投资，新增高铁里程184公里，力争新增一级高速公路700公里，加快机场建设工作，优化水网体系布局。2。推动以人为核心的新型城镇化，落实共建兰西城市料“1+3+10”行动计划，统筹大中小城市与小城镇融合发展，加快榆中、敦煌国家级新型城镇化示范县城建设，抓好马山“兴边富民行动中心城镇”试点。</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="inlineStr">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>湖南</t>
         </is>
       </c>
-      <c r="B5" s="3" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>7.50%</t>
         </is>
       </c>
-      <c r="C5" s="3" t="inlineStr">
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t>1.全方位推进“十四大交通工程”、“六大水利工程”建设，力争基础设施投资增长10%：实现5G网络和千兆光网度益全部乡镇。2。推进以人为核心的新型城镇化，大力发展县城经济。</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="inlineStr">
+      <c r="A6" s="4" t="inlineStr">
         <is>
           <t>重庆6.10%</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B6" s="4" t="inlineStr">
         <is>
           <t>6%</t>
         </is>
       </c>
-      <c r="C6" s="3" t="inlineStr">
+      <c r="C6" s="4" t="inlineStr">
         <is>
           <t>1.积极扩大有效投资，抓好项目储备，加强政策对接。适度超前开展基础设施投资，抓好基础设施投资放量，抓好工业投资提质增效，用好产业链招商等方式，引进一批牵引性强、可持续发展的项目。2。持续推进城市提升，提高城市功能品质，深入推进以人为核心的新型城镇化，加强城市规划、建设、管理，努力建设国际化、绿色化、智能化、人文化现代大都市。</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="inlineStr">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>江西10.80%</t>
         </is>
       </c>
-      <c r="B7" s="3" t="inlineStr">
+      <c r="B7" s="4" t="inlineStr">
         <is>
           <t>8%以上</t>
         </is>
       </c>
-      <c r="C7" s="3" t="inlineStr">
+      <c r="C7" s="4" t="inlineStr">
         <is>
           <t>1.重点推进3453个省大中型项目，年度投资1.1万亿元以上。2。实施城市功能与品质提升行动，完成县级城市建成区黑臭水体排查并启动整治，32%建成区达到海绵城市建设要求，力争30%城市（县城）达到省生态园林城市标准。</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="A8" s="4" t="inlineStr">
         <is>
           <t>广西7.60%</t>
         </is>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B8" s="4" t="inlineStr">
         <is>
           <t>10%</t>
         </is>
       </c>
-      <c r="C8" s="3" t="inlineStr">
+      <c r="C8" s="4" t="inlineStr">
         <is>
           <t>1.自治区层面统筹推进重大项目2000项以上：开工一批高速公路项目、里程2000公里以上，全面实现县县通高速，力争引进10家以上“三类500强”企业，完成投资8200亿元以上：新建5G基站1.5万个：工业互联网新基建项目30个。2。加快建设桂林世界级旅游城市和广西世界级旅游城市目的地，开展“百镇千村”生态特色文化旅游创建</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="inlineStr">
+      <c r="A9" s="4" t="inlineStr">
         <is>
           <t>6.30%广东</t>
         </is>
       </c>
-      <c r="B9" s="3" t="inlineStr">
+      <c r="B9" s="4" t="inlineStr">
         <is>
           <t>89%</t>
         </is>
       </c>
-      <c r="C9" s="3" t="inlineStr">
+      <c r="C9" s="4" t="inlineStr">
         <is>
           <t>1.适度超前开展基础设施投资，加快交通强省建设。推进广湛等高铁建设，做好漳汕高铁新通道等项目前期工作：抓好深中等跨江跨海通道和沈海等高速公路改扩建项目，推进普通国省道和普通公路危旧桥、渡改桥升级改造，加快世界级机场群港口群建设，加快新型消费基础设施和载体建设。2。积极作为深入推进寻港澳大湾区建设，全力建设好深圳先行示范区，推动广州加快实现老城市新活力和“四个出新出彩”，高水平推进横琴粤澳深度合作区建设，全面深化前海深港现代服务业合作区改革开放。</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="inlineStr">
+      <c r="A10" s="4" t="inlineStr">
         <is>
           <t>新疆15%</t>
         </is>
       </c>
-      <c r="B10" s="3" t="inlineStr">
+      <c r="B10" s="4" t="inlineStr">
         <is>
           <t>10%左右</t>
         </is>
       </c>
-      <c r="C10" s="3" t="inlineStr">
+      <c r="C10" s="4" t="inlineStr">
         <is>
           <t>1.加快旅游基础设施建设，适度超前开展基础设施投资，加快推进综合立体交通建设，加快推进水利建设，加快推进能源建设，加快推进通信建设；有序推进城市更新，加强城市公共交通、市政设施、地下管网建设。2。加快新型城镇化建设，培育一批城市群和区域中心城市，促进城乡融合发展。</t>
         </is>
